--- a/Documentations/source/Planning.xlsx
+++ b/Documentations/source/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F13D37-691A-4508-AA46-1B4BE1244635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF1CBE-DE93-4652-8D49-72775CA36DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <definedName name="task_start" localSheetId="0">'Planning Prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -525,9 +524,6 @@
     <t>Légende :</t>
   </si>
   <si>
-    <t>Tâches non prévus</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -572,6 +568,9 @@
       </rPr>
       <t xml:space="preserve"> Pagination page gestion</t>
     </r>
+  </si>
+  <si>
+    <t>Tâches non prévues</t>
   </si>
 </sst>
 </file>
@@ -2243,9 +2242,9 @@
   </sheetPr>
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3157,21 +3156,25 @@
   </sheetPr>
   <dimension ref="A1:XFD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y16" sqref="Y16"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="25" customWidth="1"/>
-    <col min="8" max="13" width="22" style="25" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="25" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -3410,7 +3413,7 @@
       </c>
       <c r="B13" s="19">
         <f>SUM(B14:B33)</f>
-        <v>2.5972222222222223</v>
+        <v>2.7430555555555558</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3824,7 +3827,7 @@
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="20">
         <f t="shared" si="0"/>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="20">
         <f t="shared" si="0"/>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" si="0"/>
-        <v>1.3104166666666668</v>
+        <v>1.45625</v>
       </c>
       <c r="C33" s="30">
         <v>8.3333333333333329E-2</v>
@@ -3903,7 +3906,9 @@
       <c r="L33" s="30">
         <v>0.29166666666666669</v>
       </c>
-      <c r="M33" s="30"/>
+      <c r="M33" s="30">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="34" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
@@ -3911,7 +3916,7 @@
       </c>
       <c r="B34" s="24">
         <f>SUM(B35:B37)</f>
-        <v>0.55902777777777768</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -3965,7 +3970,7 @@
       </c>
       <c r="B36" s="23">
         <f>SUM(C36:M36)</f>
-        <v>0.20486111111111108</v>
+        <v>0.22569444444444442</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="31">
@@ -3995,7 +4000,9 @@
       <c r="L36" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M36" s="30"/>
+      <c r="M36" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="XFD36" s="30"/>
     </row>
     <row r="37" spans="1:15 16384:16384" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4036,7 +4043,7 @@
     <row r="38" spans="1:15 16384:16384" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="33">
         <f>SUM(B34,B13,B8,B6)</f>
-        <v>3.3333333333333335</v>
+        <v>3.5000000000000004</v>
       </c>
       <c r="C38" s="34">
         <f t="shared" ref="C38:M38" si="1">SUM(C7:C7,C9:C12,C14:C33,C35:C37)</f>
@@ -4080,7 +4087,7 @@
       </c>
       <c r="M38" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
@@ -4092,7 +4099,7 @@
     </row>
     <row r="41" spans="1:15 16384:16384" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D41" s="38"/>
     </row>
@@ -4160,35 +4167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4476,27 +4454,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4515,4 +4502,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>